--- a/src/test/resources/excel/Book.xlsx
+++ b/src/test/resources/excel/Book.xlsx
@@ -91,7 +91,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>cus_PXQgu5qrLGuDev</t>
+    <t>cus_PZGrTu8F7YREQ2</t>
   </si>
 </sst>
 </file>
